--- a/bet_report_19-01-2020 to 17-07-2020_120slips.xlsx
+++ b/bet_report_19-01-2020 to 17-07-2020_120slips.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>B1</t>
   </si>
@@ -119,7 +119,13 @@
     <t>OV15</t>
   </si>
   <si>
-    <t>UN15</t>
+    <t>OV55</t>
+  </si>
+  <si>
+    <t>BTTS(Y)</t>
+  </si>
+  <si>
+    <t>YC(0V25)</t>
   </si>
 </sst>
 </file>
@@ -199,13 +205,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,11 +492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,44 +508,54 @@
     <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B1" s="9">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B1" s="10">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="9">
-        <v>2</v>
-      </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="10">
+        <v>2</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9" t="s">
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9" t="s">
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="5" t="s">
         <v>22</v>
@@ -586,7 +602,7 @@
       <c r="P2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="R2" s="7" t="s">
@@ -604,8 +620,26 @@
       <c r="V2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -639,7 +673,7 @@
         <f>N3+O3</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="11"/>
+      <c r="Q3" s="9"/>
       <c r="R3" s="7"/>
       <c r="S3" s="8">
         <f>Q3+R3</f>
@@ -649,20 +683,28 @@
         <f>T3+U3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y3">
+        <f>W3+X3</f>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f>Z3+AA3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" s="8">
         <f t="shared" ref="D4:D24" si="0">B4+C4</f>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E4" s="6">
         <v>2</v>
@@ -675,24 +717,24 @@
         <v>4</v>
       </c>
       <c r="H4" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:J24" si="2">H4+I4</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K4" s="6">
+        <v>8</v>
+      </c>
+      <c r="L4" s="7">
         <v>7</v>
-      </c>
-      <c r="L4" s="7">
-        <v>4</v>
       </c>
       <c r="M4" s="8">
         <f t="shared" ref="M4:M24" si="3">K4+L4</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
@@ -700,20 +742,33 @@
         <f t="shared" ref="P4:P24" si="4">N4+O4</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="11">
-        <v>2</v>
-      </c>
-      <c r="R4" s="7"/>
+      <c r="Q4" s="9">
+        <v>6</v>
+      </c>
+      <c r="R4" s="7">
+        <v>2</v>
+      </c>
       <c r="S4" s="8">
         <f t="shared" ref="S4:S24" si="5">Q4+R4</f>
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
       </c>
       <c r="V4">
         <f t="shared" ref="V4:V24" si="6">T4+U4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y25" si="7">W4+X4</f>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" ref="AB4:AB25" si="8">Z4+AA4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -731,29 +786,31 @@
         <v>4</v>
       </c>
       <c r="F5" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G5" s="8">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H5" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
       <c r="I5" s="7">
         <v>1</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" s="6">
         <v>1</v>
       </c>
       <c r="L5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
@@ -761,20 +818,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="11">
-        <v>5</v>
+      <c r="Q5" s="9">
+        <v>6</v>
       </c>
       <c r="R5" s="7"/>
       <c r="S5" s="8">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -789,24 +854,24 @@
         <v>12</v>
       </c>
       <c r="E6" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
         <v>4</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K6" s="6">
         <v>3</v>
@@ -824,22 +889,36 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="9">
         <v>2</v>
       </c>
       <c r="R6" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S6" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -870,14 +949,14 @@
         <v>0</v>
       </c>
       <c r="K7" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M7" s="8">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="7">
@@ -887,22 +966,33 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="9">
         <v>5</v>
       </c>
       <c r="R7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S7" s="8">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -944,7 +1034,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="11"/>
+      <c r="Q8" s="9"/>
       <c r="R8" s="7">
         <v>1</v>
       </c>
@@ -956,8 +1046,16 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -997,7 +1095,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="11"/>
+      <c r="Q9" s="9"/>
       <c r="R9" s="7"/>
       <c r="S9" s="8">
         <f t="shared" si="5"/>
@@ -1007,8 +1105,16 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1054,7 +1160,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="9">
         <v>1</v>
       </c>
       <c r="R10" s="7"/>
@@ -1066,8 +1172,16 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1107,7 +1221,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="11"/>
+      <c r="Q11" s="9"/>
       <c r="R11" s="7"/>
       <c r="S11" s="8">
         <f t="shared" si="5"/>
@@ -1117,8 +1231,16 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1160,7 +1282,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="11"/>
+      <c r="Q12" s="9"/>
       <c r="R12" s="7">
         <v>2</v>
       </c>
@@ -1172,8 +1294,16 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1215,7 +1345,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="11"/>
+      <c r="Q13" s="9"/>
       <c r="R13" s="7"/>
       <c r="S13" s="8">
         <f t="shared" si="5"/>
@@ -1225,8 +1355,16 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1247,24 +1385,24 @@
         <v>0</v>
       </c>
       <c r="H14" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
         <v>3</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K14" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L14" s="7">
         <v>1</v>
       </c>
       <c r="M14" s="8">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="7"/>
@@ -1272,28 +1410,46 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="11"/>
+      <c r="Q14" s="9">
+        <v>1</v>
+      </c>
       <c r="R14" s="7"/>
       <c r="S14" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
       <c r="D15" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
@@ -1302,14 +1458,14 @@
         <v>0</v>
       </c>
       <c r="H15" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="7"/>
@@ -1325,7 +1481,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="9">
         <v>1</v>
       </c>
       <c r="R15" s="7">
@@ -1339,8 +1495,16 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -1380,7 +1544,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="11"/>
+      <c r="Q16" s="9"/>
       <c r="R16" s="7"/>
       <c r="S16" s="8">
         <f t="shared" si="5"/>
@@ -1390,48 +1554,56 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E17" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="7">
         <v>1</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="7"/>
@@ -1439,18 +1611,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="11"/>
+      <c r="Q17" s="9">
+        <v>2</v>
+      </c>
       <c r="R17" s="7"/>
       <c r="S17" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -1490,7 +1672,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="11"/>
+      <c r="Q18" s="9"/>
       <c r="R18" s="7"/>
       <c r="S18" s="8">
         <f t="shared" si="5"/>
@@ -1500,8 +1682,16 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -1535,7 +1725,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="11"/>
+      <c r="Q19" s="9"/>
       <c r="R19" s="7"/>
       <c r="S19" s="8">
         <f t="shared" si="5"/>
@@ -1545,8 +1735,16 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -1580,7 +1778,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="11"/>
+      <c r="Q20" s="9"/>
       <c r="R20" s="7"/>
       <c r="S20" s="8">
         <f t="shared" si="5"/>
@@ -1590,8 +1788,16 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
@@ -1625,7 +1831,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="11"/>
+      <c r="Q21" s="9"/>
       <c r="R21" s="7"/>
       <c r="S21" s="8">
         <f t="shared" si="5"/>
@@ -1635,46 +1841,56 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C22" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7">
+        <v>2</v>
+      </c>
       <c r="G22" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I22" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K22" s="6">
         <v>2</v>
       </c>
       <c r="L22" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M22" s="8">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" s="6"/>
       <c r="O22" s="7">
@@ -1684,7 +1900,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="Q22" s="9">
         <v>2</v>
       </c>
       <c r="R22" s="7"/>
@@ -1692,38 +1908,53 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
       <c r="V22">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
       <c r="D23" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
       </c>
       <c r="F23" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H23" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
       <c r="I23" s="7">
         <v>3</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="7"/>
@@ -1739,18 +1970,31 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="Q23" s="11"/>
+      <c r="Q23" s="9">
+        <v>2</v>
+      </c>
       <c r="R23" s="7"/>
       <c r="S23" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W23">
+        <v>2</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -1784,113 +2028,152 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="7"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="7">
+        <v>1</v>
+      </c>
       <c r="S24" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="6">
-        <f>SUM(B3:B24)</f>
-        <v>60</v>
+        <f t="shared" ref="B25:J25" si="9">SUM(B3:B24)</f>
+        <v>70</v>
       </c>
       <c r="C25" s="7">
-        <f>SUM(C3:C24)</f>
+        <f t="shared" si="9"/>
+        <v>38</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="9"/>
+        <v>108</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="D25" s="8">
-        <f>SUM(D3:D24)</f>
-        <v>90</v>
-      </c>
-      <c r="E25" s="6">
-        <f>SUM(E3:E24)</f>
-        <v>20</v>
-      </c>
-      <c r="F25" s="7">
-        <f>SUM(F3:F24)</f>
-        <v>16</v>
-      </c>
-      <c r="G25" s="8">
-        <f>SUM(G3:G24)</f>
-        <v>36</v>
-      </c>
-      <c r="H25" s="6">
-        <f>SUM(H3:H24)</f>
-        <v>18</v>
-      </c>
       <c r="I25" s="7">
-        <f>SUM(I3:I24)</f>
-        <v>19</v>
+        <f t="shared" si="9"/>
+        <v>25</v>
       </c>
       <c r="J25" s="8">
-        <f>SUM(J3:J24)</f>
-        <v>37</v>
+        <f t="shared" si="9"/>
+        <v>55</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" ref="K25:M25" si="7">SUM(K3:K24)</f>
-        <v>22</v>
+        <f t="shared" ref="K25:M25" si="10">SUM(K3:K24)</f>
+        <v>26</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="10"/>
+        <v>28</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" si="10"/>
+        <v>54</v>
       </c>
       <c r="N25" s="6">
-        <f t="shared" ref="N25" si="8">SUM(N3:N24)</f>
+        <f t="shared" ref="N25" si="11">SUM(N3:N24)</f>
         <v>2</v>
       </c>
       <c r="O25" s="7">
-        <f t="shared" ref="O25" si="9">SUM(O3:O24)</f>
+        <f t="shared" ref="O25" si="12">SUM(O3:O24)</f>
         <v>9</v>
       </c>
       <c r="P25" s="8">
-        <f t="shared" ref="P25" si="10">SUM(P3:P24)</f>
+        <f t="shared" ref="P25" si="13">SUM(P3:P24)</f>
         <v>11</v>
       </c>
-      <c r="Q25" s="11">
-        <f t="shared" ref="Q25" si="11">SUM(Q3:Q24)</f>
-        <v>18</v>
+      <c r="Q25" s="9">
+        <f t="shared" ref="Q25" si="14">SUM(Q3:Q24)</f>
+        <v>28</v>
       </c>
       <c r="R25" s="7">
-        <f t="shared" ref="R25" si="12">SUM(R3:R24)</f>
-        <v>8</v>
+        <f t="shared" ref="R25" si="15">SUM(R3:R24)</f>
+        <v>13</v>
       </c>
       <c r="S25" s="8">
-        <f t="shared" ref="S25" si="13">SUM(S3:S24)</f>
-        <v>26</v>
+        <f t="shared" ref="S25" si="16">SUM(S3:S24)</f>
+        <v>41</v>
       </c>
       <c r="T25" s="8">
-        <f t="shared" ref="T25" si="14">SUM(T3:T24)</f>
+        <f t="shared" ref="T25" si="17">SUM(T3:T24)</f>
         <v>0</v>
       </c>
       <c r="U25" s="8">
-        <f t="shared" ref="U25" si="15">SUM(U3:U24)</f>
-        <v>0</v>
+        <f t="shared" ref="U25" si="18">SUM(U3:U24)</f>
+        <v>2</v>
       </c>
       <c r="V25" s="8">
-        <f t="shared" ref="V25" si="16">SUM(V3:V24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" ref="V25:AB25" si="19">SUM(V3:V24)</f>
+        <v>2</v>
+      </c>
+      <c r="W25" s="8">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="X25" s="8">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="Y25" s="8">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="Z25" s="8">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AA25" s="8">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AB25" s="8">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="B1:D1"/>
